--- a/Excel/13. Dynamic_Dashboard/Advance_Pivot_with_3d_and_Dyanamic_Dashboarding.xlsx
+++ b/Excel/13. Dynamic_Dashboard/Advance_Pivot_with_3d_and_Dyanamic_Dashboarding.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\13. Dynamic_Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\13. Dynamic_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64217DB7-8370-482F-A337-27A4E336740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD690F8-1800-4086-93A8-FC35442A1034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{2EEDDA8A-1E0B-4C35-B98E-5809934422EC}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="51">
   <si>
     <t>ProductionID</t>
   </si>
@@ -193,12 +193,6 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -283,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -303,11 +297,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -575,16 +576,16 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1152805</c:v>
+                  <c:v>251290</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>604575</c:v>
+                  <c:v>98825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>703282</c:v>
+                  <c:v>159368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>910416</c:v>
+                  <c:v>259321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,77 +1165,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot_2!$A$4:$A$14</c:f>
+              <c:f>Pivot_2!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Andrew Blue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Chris Green</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>David White</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Emily Davis</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Jane Smith</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>John Doe</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Laura Black</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mike Brown</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Nancy Grey</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sarah Lee</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_2!$B$4:$B$14</c:f>
+              <c:f>Pivot_2!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,9 +1652,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Pivot_3!$A$4:$A$19</c:f>
+              <c:f>Pivot_3!$A$4:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sep</c:v>
@@ -1739,15 +1686,6 @@
                   <c:pt idx="9">
                     <c:v>Jun</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Sep</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1762,48 +1700,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_3!$B$4:$B$19</c:f>
+              <c:f>Pivot_3!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>771</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3103</c:v>
+                  <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4803</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2494</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3026</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4127</c:v>
+                  <c:v>1318</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3875</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1528</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1684</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3537</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2864</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1379</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,16 +2482,16 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>140.87387695413258</c:v>
+                  <c:v>113.14090538681076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.368246516667</c:v>
+                  <c:v>160.50876012499171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180.4410334877862</c:v>
+                  <c:v>257.48917478225388</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.97659894637712</c:v>
+                  <c:v>93.29276767399233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,16 +3006,16 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1152805</c:v>
+                  <c:v>251290</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>604575</c:v>
+                  <c:v>98825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>703282</c:v>
+                  <c:v>159368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>910416</c:v>
+                  <c:v>259321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3780,77 +3709,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot_2!$A$4:$A$14</c:f>
+              <c:f>Pivot_2!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Andrew Blue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Chris Green</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>David White</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Emily Davis</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Jane Smith</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>John Doe</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Laura Black</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mike Brown</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Nancy Grey</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sarah Lee</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_2!$B$4:$B$14</c:f>
+              <c:f>Pivot_2!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4535,9 +4410,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Pivot_3!$A$4:$A$19</c:f>
+              <c:f>Pivot_3!$A$4:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sep</c:v>
@@ -4569,15 +4444,6 @@
                   <c:pt idx="9">
                     <c:v>Jun</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Sep</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4592,48 +4458,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_3!$B$4:$B$19</c:f>
+              <c:f>Pivot_3!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>771</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3103</c:v>
+                  <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4803</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2494</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3026</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4127</c:v>
+                  <c:v>1318</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3875</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1528</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1684</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3537</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2864</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1379</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,16 +5560,16 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>140.87387695413258</c:v>
+                  <c:v>113.14090538681076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.368246516667</c:v>
+                  <c:v>160.50876012499171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180.4410334877862</c:v>
+                  <c:v>257.48917478225388</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.97659894637712</c:v>
+                  <c:v>93.29276767399233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12694,8 +12551,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -12768,7 +12625,7 @@
     <dataField name="Total Cost" fld="6" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12806,7 +12663,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E073E34A-43F4-42E5-8244-1F456AF4C22B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
@@ -12951,8 +12808,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -12979,12 +12836,12 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13001,36 +12858,9 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -13076,7 +12906,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D78E9B3-EF8A-4596-876F-BE3FD6627AE3}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
@@ -13192,8 +13022,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -13243,7 +13073,7 @@
     <field x="13"/>
     <field x="11"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="13">
     <i>
       <x v="1"/>
     </i>
@@ -13279,15 +13109,6 @@
     </i>
     <i r="1">
       <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -13457,8 +13278,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -13502,7 +13323,7 @@
     <dataField name="Average of Production Cost Per Unit" fld="10" subtotal="average" baseField="4" baseItem="0" numFmtId="43"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -13756,10 +13577,10 @@
   <data>
     <tabular pivotCacheId="1603146037">
       <items count="4">
-        <i x="3" s="1"/>
-        <i x="2" s="1"/>
-        <i x="0" s="1"/>
         <i x="1" s="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -13775,8 +13596,8 @@
     <tabular pivotCacheId="1603146037">
       <items count="3">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -13794,8 +13615,8 @@
   <data>
     <tabular pivotCacheId="1603146037">
       <items count="3">
-        <i x="0" s="1"/>
-        <i x="2" s="1"/>
+        <i x="0"/>
+        <i x="2"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -13811,12 +13632,12 @@
   <data>
     <tabular pivotCacheId="1603146037">
       <items count="6">
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
         <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="0" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
+        <i x="4"/>
+        <i x="0" nd="1"/>
+        <i x="5" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -14158,7 +13979,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -14174,7 +13995,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="7">
-        <v>1152805</v>
+        <v>251290</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14182,7 +14003,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="7">
-        <v>604575</v>
+        <v>98825</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14190,7 +14011,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="7">
-        <v>703282</v>
+        <v>159368</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -14198,7 +14019,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="7">
-        <v>910416</v>
+        <v>259321</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -14206,7 +14027,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="7">
-        <v>3371078</v>
+        <v>768804</v>
       </c>
     </row>
   </sheetData>
@@ -14217,7 +14038,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29BA515-52AE-4B4C-A15C-1102C3846F32}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -14239,90 +14060,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
-        <v>120</v>
+      <c r="B5" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14333,7 +14082,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1C5026-84D1-4491-A97E-2758840F31F6}">
-  <dimension ref="A3:B19"/>
+  <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -14357,128 +14106,104 @@
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
-        <v>11171</v>
+      <c r="B4" s="11">
+        <v>2732</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>771</v>
+      <c r="B5" s="11">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6">
-        <v>3103</v>
+      <c r="B6" s="11">
+        <v>1172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B7">
-        <v>4803</v>
+      <c r="B7" s="11">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B8">
-        <v>2494</v>
+      <c r="B8" s="11">
+        <v>1221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
-        <v>23556</v>
+      <c r="B9" s="11">
+        <v>4417</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>3026</v>
+        <v>43</v>
+      </c>
+      <c r="B10" s="11">
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11">
-        <v>4127</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1318</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12">
-        <v>3875</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="11">
+        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13">
-        <v>1528</v>
+        <v>46</v>
+      </c>
+      <c r="B13" s="11">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14">
-        <v>1684</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="11">
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>3537</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="11">
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
-        <v>34727</v>
+      <c r="B16" s="11">
+        <v>7149</v>
       </c>
     </row>
   </sheetData>
@@ -14507,7 +14232,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -14515,7 +14240,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="6">
-        <v>140.87387695413258</v>
+        <v>113.14090538681076</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14523,7 +14248,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="6">
-        <v>108.368246516667</v>
+        <v>160.50876012499171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14531,7 +14256,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="6">
-        <v>180.4410334877862</v>
+        <v>257.48917478225388</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -14539,7 +14264,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="6">
-        <v>108.97659894637712</v>
+        <v>93.29276767399233</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -14547,7 +14272,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="6">
-        <v>132.39235089555021</v>
+        <v>129.00151070623102</v>
       </c>
     </row>
   </sheetData>
@@ -14568,7 +14293,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
